--- a/biology/Zoologie/Leptogaster_falloti/Leptogaster_falloti.xlsx
+++ b/biology/Zoologie/Leptogaster_falloti/Leptogaster_falloti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptogaster falloti est une espèce fossile d'insectes diptères de la famille des Dolichopodidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Leptogaster falloti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2].
-Holotype
-L'holotype et échantillon R881, ainsi que sa contre empreinte R521, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin[1],[2].
-Étymologie
-L'épithète spécifique falloti fait hommage à « M. le professeur P. Fallot, qui nous a reçu dans son laboratoire, nous a dirigé et soutenu dans nos recherches »[3]. Il est aussi un examinateur de sa thèse et un géologue français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Leptogaster falloti est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -543,19 +553,170 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et échantillon R881, ainsi que sa contre empreinte R521, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique falloti fait hommage à « M. le professeur P. Fallot, qui nous a reçu dans son laboratoire, nous a dirigé et soutenu dans nos recherches ». Il est aussi un examinateur de sa thèse et un géologue français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte gracile, de couleur brun noirâtre. Tête arrondie, noire ; deux gros yeux contigus, espace interoculaire étroit, certaines facettes sont encore visibles ; front court ; ocelles conservées. Thorax noir, légèrement comprimé latéralement, bombé sur le dos. Ailes insérées à mi-hauteur, sous une petite écaille arrondie ; ailes droites, vitreuses, nervures fortes ; C s'étend jusqu'au sommet ; Sc accolée à R, se termine dans C vers le milieu du bord antérieur ; R parallèle à C, s'y termine vers le tiers extérieur ; Rs divisé deux fois ; M avec cellule, se divise en trois branches ; Cu1 se soude à M ; cellule CuA ouverte ; alule nulle. Pattes finement velues et grêles. Abdomen long et grêle, légèrement renflé vers l'extrémité, fixé à la partie ventrale du thorax ; huit segments visibles ; armure génitale ♂ ; deux paires de gonapophyses ; forceps inférieurs en haut, forceps supérieurs plus longs et recourbés ; au milieu et en haut, lamelle supérieure portant l'anus. »[1].
-Dimensions
-La longueur totale est de 7,50 mm, la tête a une longueur de 0,75 mm, le thorax a une longueur de 1 mm et une hauteur de 1 mm, l'aile aune longueur de 4,2 mm et une largeur de 1 mm ; l'abdomen a une longueur de 5,75 mm et une largeur de 0,75 mm[1].
-Affinités
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte gracile, de couleur brun noirâtre. Tête arrondie, noire ; deux gros yeux contigus, espace interoculaire étroit, certaines facettes sont encore visibles ; front court ; ocelles conservées. Thorax noir, légèrement comprimé latéralement, bombé sur le dos. Ailes insérées à mi-hauteur, sous une petite écaille arrondie ; ailes droites, vitreuses, nervures fortes ; C s'étend jusqu'au sommet ; Sc accolée à R, se termine dans C vers le milieu du bord antérieur ; R parallèle à C, s'y termine vers le tiers extérieur ; Rs divisé deux fois ; M avec cellule, se divise en trois branches ; Cu1 se soude à M ; cellule CuA ouverte ; alule nulle. Pattes finement velues et grêles. Abdomen long et grêle, légèrement renflé vers l'extrémité, fixé à la partie ventrale du thorax ; huit segments visibles ; armure génitale ♂ ; deux paires de gonapophyses ; forceps inférieurs en haut, forceps supérieurs plus longs et recourbés ; au milieu et en haut, lamelle supérieure portant l'anus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7,50 mm, la tête a une longueur de 0,75 mm, le thorax a une longueur de 1 mm et une hauteur de 1 mm, l'aile aune longueur de 4,2 mm et une largeur de 1 mm ; l'abdomen a une longueur de 5,75 mm et une largeur de 0,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leptogaster_falloti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Présence des caractères le rangeant d'une façon certaine parmi les Leptogastrinae. Très différent de Leptogaster Helli Unger de Radoboj.
-Se rapproche de Leptogaster pubicornis Loew par la taille et la nervation des ailes ; ce dernier vit en France (voir Séguy, Faune de France, 17, p. 20). Leptogaster peduncutala Loew a une nervation presque identique à L. Miegi[note 2], cette forme vit en Europe méridionale. »[1].
+Se rapproche de Leptogaster pubicornis Loew par la taille et la nervation des ailes ; ce dernier vit en France (voir Séguy, Faune de France, 17, p. 20). Leptogaster peduncutala Loew a une nervation presque identique à L. Miegi[note 2], cette forme vit en Europe méridionale. ».
 </t>
         </is>
       </c>
